--- a/策划/表格配置/C-场景.xlsx
+++ b/策划/表格配置/C-场景.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F7201-E984-40E7-BBD5-574B6C24A9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD239-F897-4029-9807-2C6EB94709ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,7 @@
             <charset val="134"/>
           </rPr>
           <t>吱吱吱吱：
+        任意=-1
         Launcher=0,
         Home=1, 
         Farm=2,</t>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>跳转ID</t>
   </si>
@@ -158,6 +159,10 @@
   </si>
   <si>
     <t>0.5,-3,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意至万家家</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +215,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +272,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +629,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,10 +761,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>

--- a/策划/表格配置/C-场景.xlsx
+++ b/策划/表格配置/C-场景.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD239-F897-4029-9807-2C6EB94709ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35AD3CF-857D-4A8D-9270-EC087F285559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,8 @@
         任意=-1
         Launcher=0,
         Home=1, 
-        Farm=2,</t>
+        Farm=2,
+        henhouse=3,</t>
         </r>
       </text>
     </comment>
@@ -51,11 +52,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">吱吱吱吱：
+          <t>吱吱吱吱：
         Launcher=0,
         Home=1, 
         Farm=2,
-</t>
+        henhouse=3,</t>
         </r>
       </text>
     </comment>
@@ -629,7 +630,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/策划/表格配置/C-场景.xlsx
+++ b/策划/表格配置/C-场景.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35AD3CF-857D-4A8D-9270-EC087F285559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7E8FD-02CB-4813-A9E8-F9DFE73793A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenesJump" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>跳转ID</t>
   </si>
@@ -163,7 +163,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>任意至万家家</t>
+    <t>任意至玩家家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意至鸡棚</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +634,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,7 +750,7 @@
       <c r="A6" s="5">
         <v>10003</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5">
@@ -782,10 +786,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
